--- a/biology/Zoologie/Euselasia_phedica/Euselasia_phedica.xlsx
+++ b/biology/Zoologie/Euselasia_phedica/Euselasia_phedica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia phedica est une espèce d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia phedica a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836 sous le protonyme d’Eurygona phedica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia phedica a été décrit par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836 sous le protonyme d’Eurygona phedica.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia phedica est de couleur noire avec aux postérieures une large partie marginale blanche qui englobe un gros ocelle noir médian.
 L'autre face est de couleur beige rayée de cuivré avec aux antérieures trois chevrons noirs à l'apex et aux postérieures un très gros ocelle noir cerclé d'orange en position médiane.
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,11 +618,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia phedica est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia phedica est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_phedica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_phedica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
 </t>
         </is>
       </c>
